--- a/Res_Trans_Flota_Esc_4.xlsx
+++ b/Res_Trans_Flota_Esc_4.xlsx
@@ -559,7 +559,7 @@
         <v>2025</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -575,7 +575,7 @@
         <v>2026</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.9</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="6">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.74</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="9">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.56</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.74</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="11">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
         <v>48</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
         <v>58</v>
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>19</v>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
         <v>29</v>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
         <v>58</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>126602.6635</v>
+        <v>103583.9974090909</v>
       </c>
       <c r="E2" t="n">
         <v>675854.2811856969</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>186889.6461190475</v>
+        <v>152909.7104610389</v>
       </c>
       <c r="E7" t="n">
         <v>997689.653178886</v>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10791369.88880952</v>
+        <v>8829302.636298699</v>
       </c>
       <c r="E12" t="n">
         <v>57608531.58678084</v>
@@ -2397,7 +2397,7 @@
         <v>2025</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -2833,7 +2833,7 @@
         <v>2025</v>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2849,7 +2849,7 @@
         <v>2026</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3417,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -3531,7 +3531,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -11533,7 +11533,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -15998,7 +15998,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="263">
@@ -16017,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -16112,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="269">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -16226,7 +16226,7 @@
         <v>2</v>
       </c>
       <c r="E274" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="275">
@@ -16245,7 +16245,7 @@
         <v>2</v>
       </c>
       <c r="E275" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -16340,7 +16340,7 @@
         <v>3</v>
       </c>
       <c r="E280" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="281">
@@ -16359,7 +16359,7 @@
         <v>3</v>
       </c>
       <c r="E281" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -16454,7 +16454,7 @@
         <v>4</v>
       </c>
       <c r="E286" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="287">
@@ -24129,7 +24129,7 @@
         <v>5</v>
       </c>
       <c r="F212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -69153,7 +69153,7 @@
         <v>0</v>
       </c>
       <c r="F2088" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2089">
@@ -69249,7 +69249,7 @@
         <v>0</v>
       </c>
       <c r="F2092" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -70113,7 +70113,7 @@
         <v>1</v>
       </c>
       <c r="F2128" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2129">
@@ -70137,7 +70137,7 @@
         <v>1</v>
       </c>
       <c r="F2129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2130">
@@ -71097,7 +71097,7 @@
         <v>2</v>
       </c>
       <c r="F2169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2170">
@@ -71121,7 +71121,7 @@
         <v>2</v>
       </c>
       <c r="F2170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2171">
@@ -71721,7 +71721,7 @@
         <v>2</v>
       </c>
       <c r="F2195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2196">
@@ -72081,7 +72081,7 @@
         <v>3</v>
       </c>
       <c r="F2210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2211">
@@ -72105,7 +72105,7 @@
         <v>3</v>
       </c>
       <c r="F2211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2212">
@@ -72681,7 +72681,7 @@
         <v>3</v>
       </c>
       <c r="F2235" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2236">
@@ -72705,7 +72705,7 @@
         <v>3</v>
       </c>
       <c r="F2236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2237">
@@ -73065,7 +73065,7 @@
         <v>4</v>
       </c>
       <c r="F2251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2252">
@@ -73665,7 +73665,7 @@
         <v>4</v>
       </c>
       <c r="F2276" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2277">
@@ -99919,7 +99919,7 @@
         <v>2025</v>
       </c>
       <c r="C2" t="n">
-        <v>13460000</v>
+        <v>13940000</v>
       </c>
     </row>
     <row r="3">
@@ -99930,7 +99930,7 @@
         <v>2026</v>
       </c>
       <c r="C3" t="n">
-        <v>945287.6785306828</v>
+        <v>472643.8392653414</v>
       </c>
     </row>
     <row r="4">
